--- a/Code/Results/Cases/Case_5_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.828106314244252</v>
+        <v>0.3025718484996105</v>
       </c>
       <c r="C2">
-        <v>0.1353273681361031</v>
+        <v>0.04309411454214285</v>
       </c>
       <c r="D2">
-        <v>0.1480580643624734</v>
+        <v>0.1772371813365652</v>
       </c>
       <c r="E2">
-        <v>0.1023907520936582</v>
+        <v>0.161549240267604</v>
       </c>
       <c r="F2">
-        <v>0.7829511759207293</v>
+        <v>1.558199454538695</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3651890691640851</v>
+        <v>0.8049193884203696</v>
       </c>
       <c r="J2">
-        <v>0.101891448820524</v>
+        <v>0.1895558923538943</v>
       </c>
       <c r="K2">
-        <v>0.9111185562954631</v>
+        <v>0.3220167570320882</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3207401485876034</v>
+        <v>0.2139809486867037</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.845462052957345</v>
+        <v>3.843357082501811</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7210532651399433</v>
+        <v>0.2701544156448676</v>
       </c>
       <c r="C3">
-        <v>0.1183041415347788</v>
+        <v>0.03790341381308338</v>
       </c>
       <c r="D3">
-        <v>0.1321502281747655</v>
+        <v>0.1736252473569664</v>
       </c>
       <c r="E3">
-        <v>0.09453619561449855</v>
+        <v>0.160366692614673</v>
       </c>
       <c r="F3">
-        <v>0.7663484862810392</v>
+        <v>1.564409928655714</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3727052225986469</v>
+        <v>0.8123006490207274</v>
       </c>
       <c r="J3">
-        <v>0.09726063608348312</v>
+        <v>0.1895573463848947</v>
       </c>
       <c r="K3">
-        <v>0.7938781383875266</v>
+        <v>0.2864403919677159</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.279898808932117</v>
+        <v>0.2030191540003585</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.839853153955474</v>
+        <v>3.868572058196477</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6553629482550321</v>
+        <v>0.250258429681395</v>
       </c>
       <c r="C4">
-        <v>0.1078570365987588</v>
+        <v>0.03471053536307522</v>
       </c>
       <c r="D4">
-        <v>0.1224726594697074</v>
+        <v>0.1714742075438664</v>
       </c>
       <c r="E4">
-        <v>0.08982322514851049</v>
+        <v>0.1597105379536998</v>
       </c>
       <c r="F4">
-        <v>0.7575242136964562</v>
+        <v>1.568984973307984</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.3780465236899886</v>
+        <v>0.8172196170060815</v>
       </c>
       <c r="J4">
-        <v>0.09456765549798263</v>
+        <v>0.189645885722534</v>
       </c>
       <c r="K4">
-        <v>0.721932366282914</v>
+        <v>0.2645940953209305</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2549461747295823</v>
+        <v>0.1963630088338206</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.839995573591494</v>
+        <v>3.88597256394533</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.628595619111195</v>
+        <v>0.2421532912149473</v>
       </c>
       <c r="C5">
-        <v>0.1035995470461728</v>
+        <v>0.03340802738125603</v>
       </c>
       <c r="D5">
-        <v>0.1185498926231503</v>
+        <v>0.170614509483201</v>
       </c>
       <c r="E5">
-        <v>0.0879287835146414</v>
+        <v>0.1594607796127256</v>
       </c>
       <c r="F5">
-        <v>0.7542589572940059</v>
+        <v>1.571041033467623</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3803997575160416</v>
+        <v>0.8193214236659863</v>
       </c>
       <c r="J5">
-        <v>0.09350633285629328</v>
+        <v>0.1897040295657177</v>
       </c>
       <c r="K5">
-        <v>0.6926147316221005</v>
+        <v>0.2556915205099131</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2448048085741448</v>
+        <v>0.1936694803239867</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.840920996567945</v>
+        <v>3.893545944850501</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6241508145340617</v>
+        <v>0.2408076135640727</v>
       </c>
       <c r="C6">
-        <v>0.1028925387055182</v>
+        <v>0.03319166527889195</v>
       </c>
       <c r="D6">
-        <v>0.1178997360420766</v>
+        <v>0.1704727788739717</v>
       </c>
       <c r="E6">
-        <v>0.08761574964173846</v>
+        <v>0.1594203735475261</v>
       </c>
       <c r="F6">
-        <v>0.7537363476834003</v>
+        <v>1.571394022390798</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3808010056478004</v>
+        <v>0.8196763033330186</v>
       </c>
       <c r="J6">
-        <v>0.09333223195983109</v>
+        <v>0.1897150175823548</v>
       </c>
       <c r="K6">
-        <v>0.6877463510108299</v>
+        <v>0.2542132687093499</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.243122357478736</v>
+        <v>0.1932233692416432</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.841126074077806</v>
+        <v>3.894832646777573</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6550019570879044</v>
+        <v>0.2501491095900121</v>
       </c>
       <c r="C7">
-        <v>0.1077996214011137</v>
+        <v>0.03469297480215516</v>
       </c>
       <c r="D7">
-        <v>0.122419673124412</v>
+        <v>0.1714625449301366</v>
       </c>
       <c r="E7">
-        <v>0.08979757212765449</v>
+        <v>0.1597070981829454</v>
       </c>
       <c r="F7">
-        <v>0.7574788559999917</v>
+        <v>1.569011925722023</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3780775529133713</v>
+        <v>0.8172475687777911</v>
       </c>
       <c r="J7">
-        <v>0.09455319822147601</v>
+        <v>0.189646580504963</v>
       </c>
       <c r="K7">
-        <v>0.7215369868473545</v>
+        <v>0.2644740314970022</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2548093006133669</v>
+        <v>0.196326606175024</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.840004586473668</v>
+        <v>3.886072747274426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7911808506926548</v>
+        <v>0.2913928612525467</v>
       </c>
       <c r="C8">
-        <v>0.1294557251013373</v>
+        <v>0.0413055959520392</v>
       </c>
       <c r="D8">
-        <v>0.1425533361650935</v>
+        <v>0.1759779981405529</v>
       </c>
       <c r="E8">
-        <v>0.09965881326954573</v>
+        <v>0.1611270088996015</v>
       </c>
       <c r="F8">
-        <v>0.7769337749460945</v>
+        <v>1.560182795439033</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3676261666273355</v>
+        <v>0.8073841650580249</v>
       </c>
       <c r="J8">
-        <v>0.1002624762490285</v>
+        <v>0.1895382165534656</v>
       </c>
       <c r="K8">
-        <v>0.8706799016504476</v>
+        <v>0.3097508076794782</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3066297018801691</v>
+        <v>0.2101859793158098</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.842762543925744</v>
+        <v>3.851653118463261</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.058957371231429</v>
+        <v>0.3723202437826671</v>
       </c>
       <c r="C9">
-        <v>0.1720400501397137</v>
+        <v>0.05422488829866268</v>
       </c>
       <c r="D9">
-        <v>0.1828309703773385</v>
+        <v>0.1853584434145432</v>
       </c>
       <c r="E9">
-        <v>0.1199382171816055</v>
+        <v>0.1644646992647623</v>
       </c>
       <c r="F9">
-        <v>0.8266090983974337</v>
+        <v>1.548908488752907</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.3531800562878225</v>
+        <v>0.7911109945198476</v>
       </c>
       <c r="J9">
-        <v>0.1127336331296149</v>
+        <v>0.1900203076769174</v>
       </c>
       <c r="K9">
-        <v>1.163928307332583</v>
+        <v>0.398501194738401</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4094383489675835</v>
+        <v>0.2379481681597184</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.878263086301473</v>
+        <v>3.799373690857891</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.2567588986293</v>
+        <v>0.4317881612396377</v>
       </c>
       <c r="C10">
-        <v>0.2035127512312158</v>
+        <v>0.06368527214058872</v>
       </c>
       <c r="D10">
-        <v>0.213031474061907</v>
+        <v>0.1925667443850756</v>
       </c>
       <c r="E10">
-        <v>0.1355165137081578</v>
+        <v>0.1672524102340986</v>
       </c>
       <c r="F10">
-        <v>0.8710963491052723</v>
+        <v>1.544302173874541</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3466726153453905</v>
+        <v>0.7810253816209709</v>
       </c>
       <c r="J10">
-        <v>0.1227952873688665</v>
+        <v>0.1907971141273279</v>
       </c>
       <c r="K10">
-        <v>1.380553927380049</v>
+        <v>0.4636639504627453</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4860047743710325</v>
+        <v>0.2586943497033189</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.925097394657087</v>
+        <v>3.770237344602975</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.347124488642834</v>
+        <v>0.4588402955394884</v>
       </c>
       <c r="C11">
-        <v>0.2178986015008917</v>
+        <v>0.06798182917654572</v>
       </c>
       <c r="D11">
-        <v>0.2269319211429774</v>
+        <v>0.195913922146417</v>
       </c>
       <c r="E11">
-        <v>0.1427757960519855</v>
+        <v>0.1685931182615228</v>
       </c>
       <c r="F11">
-        <v>0.8932983893418651</v>
+        <v>1.543004106692649</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.3447027328610233</v>
+        <v>0.7768431767387796</v>
       </c>
       <c r="J11">
-        <v>0.1275966497462235</v>
+        <v>0.1912421149287198</v>
       </c>
       <c r="K11">
-        <v>1.479526250579539</v>
+        <v>0.4932953036930599</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5211346572343913</v>
+        <v>0.268206884489139</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.951479961424297</v>
+        <v>3.758995532142649</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.381411868608836</v>
+        <v>0.4690837789737827</v>
       </c>
       <c r="C12">
-        <v>0.2233584757284461</v>
+        <v>0.06960776019644754</v>
       </c>
       <c r="D12">
-        <v>0.2322215152785532</v>
+        <v>0.197191117102733</v>
       </c>
       <c r="E12">
-        <v>0.1455517076842519</v>
+        <v>0.169111205752813</v>
       </c>
       <c r="F12">
-        <v>0.9020085709408647</v>
+        <v>1.542627120182729</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3441080670544743</v>
+        <v>0.7753178332257242</v>
       </c>
       <c r="J12">
-        <v>0.1294496064100699</v>
+        <v>0.1914237823453888</v>
       </c>
       <c r="K12">
-        <v>1.517080753183023</v>
+        <v>0.5045138142900498</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5344869152934351</v>
+        <v>0.2718196598880382</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.962251463392448</v>
+        <v>3.755027872163481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.374024238210382</v>
+        <v>0.46687769583761</v>
       </c>
       <c r="C13">
-        <v>0.2221820087883231</v>
+        <v>0.06925763612919411</v>
       </c>
       <c r="D13">
-        <v>0.2310811178168279</v>
+        <v>0.1969156208704135</v>
       </c>
       <c r="E13">
-        <v>0.1449526297121153</v>
+        <v>0.1689991649281239</v>
       </c>
       <c r="F13">
-        <v>0.9001188754532592</v>
+        <v>1.542703217291773</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3442292628865999</v>
+        <v>0.775643747138151</v>
       </c>
       <c r="J13">
-        <v>0.1290489497437335</v>
+        <v>0.1913840722627214</v>
       </c>
       <c r="K13">
-        <v>1.508989108209818</v>
+        <v>0.5020978162128245</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5316089687721828</v>
+        <v>0.2710411164637208</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.959896045319567</v>
+        <v>3.755869509207798</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.349943896052736</v>
+        <v>0.459683047740981</v>
       </c>
       <c r="C14">
-        <v>0.2183475285523002</v>
+        <v>0.06811561759697327</v>
       </c>
       <c r="D14">
-        <v>0.2273665673864258</v>
+        <v>0.1960188040827404</v>
       </c>
       <c r="E14">
-        <v>0.1430036184243129</v>
+        <v>0.1686355336443377</v>
       </c>
       <c r="F14">
-        <v>0.894008792780852</v>
+        <v>1.542970796324468</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3446507244276589</v>
+        <v>0.7767165159714224</v>
       </c>
       <c r="J14">
-        <v>0.1277483813252118</v>
+        <v>0.1912567972841899</v>
       </c>
       <c r="K14">
-        <v>1.482614276930263</v>
+        <v>0.4942183055426028</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5222321292812993</v>
+        <v>0.2685038986968138</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.952350183240725</v>
+        <v>3.758663311063373</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.335203221652591</v>
+        <v>0.4552760269953069</v>
       </c>
       <c r="C15">
-        <v>0.2160004696673781</v>
+        <v>0.06741595522932187</v>
       </c>
       <c r="D15">
-        <v>0.2250947341581195</v>
+        <v>0.1954707370651789</v>
       </c>
       <c r="E15">
-        <v>0.1418133725631741</v>
+        <v>0.1684141508148755</v>
       </c>
       <c r="F15">
-        <v>0.8903062420968268</v>
+        <v>1.543149612842484</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3449288570539295</v>
+        <v>0.7773812193544316</v>
       </c>
       <c r="J15">
-        <v>0.1269563538345153</v>
+        <v>0.1911805502740123</v>
       </c>
       <c r="K15">
-        <v>1.466469247708346</v>
+        <v>0.489391568734618</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5164951629098198</v>
+        <v>0.2669511521220471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.947831402740093</v>
+        <v>3.760412279374464</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.250862089866416</v>
+        <v>0.4300201907133783</v>
       </c>
       <c r="C16">
-        <v>0.2025741847617155</v>
+        <v>0.06340433458467487</v>
       </c>
       <c r="D16">
-        <v>0.2121265177402023</v>
+        <v>0.1923493600172037</v>
       </c>
       <c r="E16">
-        <v>0.1350457573353196</v>
+        <v>0.1671662482140661</v>
       </c>
       <c r="F16">
-        <v>0.8696866258445368</v>
+        <v>1.544403042410153</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3468220257679171</v>
+        <v>0.7813068653346811</v>
       </c>
       <c r="J16">
-        <v>0.1224862327463185</v>
+        <v>0.1907698742954338</v>
       </c>
       <c r="K16">
-        <v>1.374095665087566</v>
+        <v>0.4617271902075402</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4837155057186067</v>
+        <v>0.2580741752195834</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.923479672875601</v>
+        <v>3.771012517713302</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.199228726823918</v>
+        <v>0.4145261268048444</v>
       </c>
       <c r="C17">
-        <v>0.1943568392380541</v>
+        <v>0.06094148581743752</v>
       </c>
       <c r="D17">
-        <v>0.2042141704974085</v>
+        <v>0.1904518640100434</v>
       </c>
       <c r="E17">
-        <v>0.1309397493949902</v>
+        <v>0.1664192544225678</v>
       </c>
       <c r="F17">
-        <v>0.8575543174489724</v>
+        <v>1.545376137046382</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3482432130334274</v>
+        <v>0.7838190651000474</v>
       </c>
       <c r="J17">
-        <v>0.1198031492684422</v>
+        <v>0.1905413912378293</v>
       </c>
       <c r="K17">
-        <v>1.317546960704334</v>
+        <v>0.4447526253516116</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4636872674486128</v>
+        <v>0.252647503252156</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.909876246219625</v>
+        <v>3.778030846356188</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.169565984367296</v>
+        <v>0.4056143728958546</v>
       </c>
       <c r="C18">
-        <v>0.1896367585524814</v>
+        <v>0.05952426400503441</v>
       </c>
       <c r="D18">
-        <v>0.1996782954297771</v>
+        <v>0.1893668889534297</v>
       </c>
       <c r="E18">
-        <v>0.1285941945021847</v>
+        <v>0.1659964360963606</v>
       </c>
       <c r="F18">
-        <v>0.8507597588438571</v>
+        <v>1.546010893294422</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3491532973697637</v>
+        <v>0.7853022100650655</v>
       </c>
       <c r="J18">
-        <v>0.1182808579274592</v>
+        <v>0.1904185994956151</v>
       </c>
       <c r="K18">
-        <v>1.285061035824612</v>
+        <v>0.4349882559562559</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4521953372297816</v>
+        <v>0.2495332956210277</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.902526581341135</v>
+        <v>3.782257026545437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.15952840140875</v>
+        <v>0.4025970268515664</v>
       </c>
       <c r="C19">
-        <v>0.188039636186403</v>
+        <v>0.05904430653828285</v>
       </c>
       <c r="D19">
-        <v>0.1981450459664131</v>
+        <v>0.1890006397540276</v>
       </c>
       <c r="E19">
-        <v>0.1278027338801735</v>
+        <v>0.1658544519523382</v>
       </c>
       <c r="F19">
-        <v>0.8484901805735845</v>
+        <v>1.546238705085372</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3494770890878911</v>
+        <v>0.7858109369011608</v>
       </c>
       <c r="J19">
-        <v>0.1177689594376616</v>
+        <v>0.1903785064171757</v>
       </c>
       <c r="K19">
-        <v>1.274068208526444</v>
+        <v>0.4316820459829955</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4483089547182715</v>
+        <v>0.2484800988654925</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.900118140925827</v>
+        <v>3.783720472713611</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.204721434260364</v>
+        <v>0.4161754981266199</v>
       </c>
       <c r="C20">
-        <v>0.1952309190556178</v>
+        <v>0.06120372872881319</v>
       </c>
       <c r="D20">
-        <v>0.205054873301151</v>
+        <v>0.1906531925461508</v>
       </c>
       <c r="E20">
-        <v>0.1313751582388427</v>
+        <v>0.1664980663437028</v>
       </c>
       <c r="F20">
-        <v>0.8588266755949263</v>
+        <v>1.545264781946656</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3480822733953133</v>
+        <v>0.7835476840941702</v>
       </c>
       <c r="J20">
-        <v>0.1200865822894031</v>
+        <v>0.1905648210746165</v>
       </c>
       <c r="K20">
-        <v>1.323562489756995</v>
+        <v>0.4465597095289979</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4658163881358774</v>
+        <v>0.2532244514133026</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.911274870462847</v>
+        <v>3.777264128829728</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.357014928885206</v>
+        <v>0.4617963102508043</v>
       </c>
       <c r="C21">
-        <v>0.2194734556093323</v>
+        <v>0.06845108606262329</v>
       </c>
       <c r="D21">
-        <v>0.2284569001176635</v>
+        <v>0.1962819586812543</v>
       </c>
       <c r="E21">
-        <v>0.1435753402028936</v>
+        <v>0.1687420593255169</v>
       </c>
       <c r="F21">
-        <v>0.8957950874203391</v>
+        <v>1.54288909343785</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3445227514576885</v>
+        <v>0.7763998335899238</v>
       </c>
       <c r="J21">
-        <v>0.1281294246768425</v>
+        <v>0.1912938241652924</v>
       </c>
       <c r="K21">
-        <v>1.490359027327656</v>
+        <v>0.4965327742662282</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5249849432005647</v>
+        <v>0.2692488553708756</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.954544967097405</v>
+        <v>3.757834850457897</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.456949768170603</v>
+        <v>0.491608553267497</v>
       </c>
       <c r="C22">
-        <v>0.2353900836693725</v>
+        <v>0.07318131348823442</v>
       </c>
       <c r="D22">
-        <v>0.243903116004617</v>
+        <v>0.2000171255105556</v>
       </c>
       <c r="E22">
-        <v>0.1517072231699643</v>
+        <v>0.1702691814415758</v>
       </c>
       <c r="F22">
-        <v>0.9217311466181144</v>
+        <v>1.542004161047586</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3430827604962623</v>
+        <v>0.7720685126266247</v>
       </c>
       <c r="J22">
-        <v>0.1335899434292358</v>
+        <v>0.1918469391676112</v>
       </c>
       <c r="K22">
-        <v>1.599819599014722</v>
+        <v>0.5291797355978645</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5639458081184969</v>
+        <v>0.2797833345281191</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.987402884227379</v>
+        <v>3.746823356915428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.403571460553138</v>
+        <v>0.4756977101970676</v>
       </c>
       <c r="C23">
-        <v>0.2268875903015726</v>
+        <v>0.07065730607041587</v>
       </c>
       <c r="D23">
-        <v>0.2356444386120131</v>
+        <v>0.1980184649353305</v>
       </c>
       <c r="E23">
-        <v>0.1473518446492648</v>
+        <v>0.1694486025636088</v>
       </c>
       <c r="F23">
-        <v>0.9077191119621091</v>
+        <v>1.542415402224506</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3437671204708614</v>
+        <v>0.7743490859010294</v>
       </c>
       <c r="J23">
-        <v>0.1306560071601766</v>
+        <v>0.1915447228810905</v>
       </c>
       <c r="K23">
-        <v>1.541352324258128</v>
+        <v>0.5117568498988305</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5431228621870829</v>
+        <v>0.2741553135865544</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.969429340093882</v>
+        <v>3.752546074829866</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.202238113749672</v>
+        <v>0.4154298298018944</v>
       </c>
       <c r="C24">
-        <v>0.1948357347259275</v>
+        <v>0.06108517274491021</v>
       </c>
       <c r="D24">
-        <v>0.2046747511369915</v>
+        <v>0.1905621534657627</v>
       </c>
       <c r="E24">
-        <v>0.1311782632037435</v>
+        <v>0.166462414793525</v>
       </c>
       <c r="F24">
-        <v>0.8582508818774812</v>
+        <v>1.545314890990085</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3481547451178955</v>
+        <v>0.7836702544386007</v>
       </c>
       <c r="J24">
-        <v>0.1199583793389394</v>
+        <v>0.1905542017610458</v>
       </c>
       <c r="K24">
-        <v>1.320842793268838</v>
+        <v>0.4457427437551473</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4648537428394732</v>
+        <v>0.2529635955100815</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.91064108879533</v>
+        <v>3.777610166088181</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9863769529242461</v>
+        <v>0.3504240201936284</v>
       </c>
       <c r="C25">
-        <v>0.1604959994582202</v>
+        <v>0.05073524186981615</v>
       </c>
       <c r="D25">
-        <v>0.1718373272828302</v>
+        <v>0.1827649196522998</v>
       </c>
       <c r="E25">
-        <v>0.1143408376761492</v>
+        <v>0.163502718786372</v>
       </c>
       <c r="F25">
-        <v>0.8118407387925117</v>
+        <v>1.551312420968515</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.3563988501131199</v>
+        <v>0.795184832115865</v>
       </c>
       <c r="J25">
-        <v>0.109211215484315</v>
+        <v>0.1898156137724598</v>
       </c>
       <c r="K25">
-        <v>1.084443892329062</v>
+        <v>0.3744978676089943</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3814679796077627</v>
+        <v>0.2303759349418186</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.865198129151793</v>
+        <v>3.811887905216565</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3025718484996105</v>
+        <v>0.8281063142443941</v>
       </c>
       <c r="C2">
-        <v>0.04309411454214285</v>
+        <v>0.1353273681360321</v>
       </c>
       <c r="D2">
-        <v>0.1772371813365652</v>
+        <v>0.1480580643622886</v>
       </c>
       <c r="E2">
-        <v>0.161549240267604</v>
+        <v>0.102390752093644</v>
       </c>
       <c r="F2">
-        <v>1.558199454538695</v>
+        <v>0.7829511759207435</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.8049193884203696</v>
+        <v>0.3651890691640851</v>
       </c>
       <c r="J2">
-        <v>0.1895558923538943</v>
+        <v>0.1018914488206235</v>
       </c>
       <c r="K2">
-        <v>0.3220167570320882</v>
+        <v>0.9111185562954347</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2139809486867037</v>
+        <v>0.320740148587582</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.843357082501811</v>
+        <v>1.845462052957345</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2701544156448676</v>
+        <v>0.721053265140057</v>
       </c>
       <c r="C3">
-        <v>0.03790341381308338</v>
+        <v>0.1183041415349635</v>
       </c>
       <c r="D3">
-        <v>0.1736252473569664</v>
+        <v>0.1321502281747797</v>
       </c>
       <c r="E3">
-        <v>0.160366692614673</v>
+        <v>0.09453619561449855</v>
       </c>
       <c r="F3">
-        <v>1.564409928655714</v>
+        <v>0.766348486281025</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.8123006490207274</v>
+        <v>0.3727052225986363</v>
       </c>
       <c r="J3">
-        <v>0.1895573463848947</v>
+        <v>0.09726063608349023</v>
       </c>
       <c r="K3">
-        <v>0.2864403919677159</v>
+        <v>0.7938781383875835</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2030191540003585</v>
+        <v>0.2798988089321099</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.868572058196477</v>
+        <v>1.839853153955431</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.250258429681395</v>
+        <v>0.6553629482551742</v>
       </c>
       <c r="C4">
-        <v>0.03471053536307522</v>
+        <v>0.1078570365988867</v>
       </c>
       <c r="D4">
-        <v>0.1714742075438664</v>
+        <v>0.1224726594695795</v>
       </c>
       <c r="E4">
-        <v>0.1597105379536998</v>
+        <v>0.0898232251485247</v>
       </c>
       <c r="F4">
-        <v>1.568984973307984</v>
+        <v>0.7575242136964633</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.8172196170060815</v>
+        <v>0.3780465236899779</v>
       </c>
       <c r="J4">
-        <v>0.189645885722534</v>
+        <v>0.09456765549798263</v>
       </c>
       <c r="K4">
-        <v>0.2645940953209305</v>
+        <v>0.7219323662828714</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1963630088338206</v>
+        <v>0.2549461747296</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.88597256394533</v>
+        <v>1.839995573591466</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2421532912149473</v>
+        <v>0.6285956191112803</v>
       </c>
       <c r="C5">
-        <v>0.03340802738125603</v>
+        <v>0.1035995470461017</v>
       </c>
       <c r="D5">
-        <v>0.170614509483201</v>
+        <v>0.1185498926232924</v>
       </c>
       <c r="E5">
-        <v>0.1594607796127256</v>
+        <v>0.08792878351466626</v>
       </c>
       <c r="F5">
-        <v>1.571041033467623</v>
+        <v>0.7542589572940059</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.8193214236659863</v>
+        <v>0.3803997575160487</v>
       </c>
       <c r="J5">
-        <v>0.1897040295657177</v>
+        <v>0.09350633285638565</v>
       </c>
       <c r="K5">
-        <v>0.2556915205099131</v>
+        <v>0.6926147316220721</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1936694803239867</v>
+        <v>0.244804808574159</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.893545944850501</v>
+        <v>1.840920996567988</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2408076135640727</v>
+        <v>0.6241508145340617</v>
       </c>
       <c r="C6">
-        <v>0.03319166527889195</v>
+        <v>0.1028925387055608</v>
       </c>
       <c r="D6">
-        <v>0.1704727788739717</v>
+        <v>0.1178997360419061</v>
       </c>
       <c r="E6">
-        <v>0.1594203735475261</v>
+        <v>0.08761574964174201</v>
       </c>
       <c r="F6">
-        <v>1.571394022390798</v>
+        <v>0.7537363476833931</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.8196763033330186</v>
+        <v>0.3808010056477933</v>
       </c>
       <c r="J6">
-        <v>0.1897150175823548</v>
+        <v>0.09333223195989149</v>
       </c>
       <c r="K6">
-        <v>0.2542132687093499</v>
+        <v>0.6877463510108299</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1932233692416432</v>
+        <v>0.243122357478736</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.894832646777573</v>
+        <v>1.841126074077778</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2501491095900121</v>
+        <v>0.6550019570879897</v>
       </c>
       <c r="C7">
-        <v>0.03469297480215516</v>
+        <v>0.1077996214013694</v>
       </c>
       <c r="D7">
-        <v>0.1714625449301366</v>
+        <v>0.1224196731246252</v>
       </c>
       <c r="E7">
-        <v>0.1597070981829454</v>
+        <v>0.08979757212765449</v>
       </c>
       <c r="F7">
-        <v>1.569011925722023</v>
+        <v>0.7574788560000059</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.8172475687777911</v>
+        <v>0.3780775529133678</v>
       </c>
       <c r="J7">
-        <v>0.189646580504963</v>
+        <v>0.09455319822145469</v>
       </c>
       <c r="K7">
-        <v>0.2644740314970022</v>
+        <v>0.7215369868473118</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.196326606175024</v>
+        <v>0.2548093006133669</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.886072747274426</v>
+        <v>1.840004586473654</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2913928612525467</v>
+        <v>0.7911808506926548</v>
       </c>
       <c r="C8">
-        <v>0.0413055959520392</v>
+        <v>0.1294557251013373</v>
       </c>
       <c r="D8">
-        <v>0.1759779981405529</v>
+        <v>0.1425533361648945</v>
       </c>
       <c r="E8">
-        <v>0.1611270088996015</v>
+        <v>0.09965881326957415</v>
       </c>
       <c r="F8">
-        <v>1.560182795439033</v>
+        <v>0.7769337749460732</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.8073841650580249</v>
+        <v>0.3676261666273319</v>
       </c>
       <c r="J8">
-        <v>0.1895382165534656</v>
+        <v>0.1002624762489432</v>
       </c>
       <c r="K8">
-        <v>0.3097508076794782</v>
+        <v>0.8706799016503055</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2101859793158098</v>
+        <v>0.3066297018801762</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.851653118463261</v>
+        <v>1.842762543925701</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3723202437826671</v>
+        <v>1.058957371231429</v>
       </c>
       <c r="C9">
-        <v>0.05422488829866268</v>
+        <v>0.1720400501396568</v>
       </c>
       <c r="D9">
-        <v>0.1853584434145432</v>
+        <v>0.1828309703774522</v>
       </c>
       <c r="E9">
-        <v>0.1644646992647623</v>
+        <v>0.1199382171815948</v>
       </c>
       <c r="F9">
-        <v>1.548908488752907</v>
+        <v>0.8266090983974195</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.7911109945198476</v>
+        <v>0.3531800562878011</v>
       </c>
       <c r="J9">
-        <v>0.1900203076769174</v>
+        <v>0.1127336331298494</v>
       </c>
       <c r="K9">
-        <v>0.398501194738401</v>
+        <v>1.163928307332611</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2379481681597184</v>
+        <v>0.4094383489675906</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.799373690857891</v>
+        <v>1.878263086301473</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4317881612396377</v>
+        <v>1.256758898629272</v>
       </c>
       <c r="C10">
-        <v>0.06368527214058872</v>
+        <v>0.2035127512313011</v>
       </c>
       <c r="D10">
-        <v>0.1925667443850756</v>
+        <v>0.2130314740619212</v>
       </c>
       <c r="E10">
-        <v>0.1672524102340986</v>
+        <v>0.1355165137081258</v>
       </c>
       <c r="F10">
-        <v>1.544302173874541</v>
+        <v>0.871096349105315</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.7810253816209709</v>
+        <v>0.3466726153453976</v>
       </c>
       <c r="J10">
-        <v>0.1907971141273279</v>
+        <v>0.1227952873689233</v>
       </c>
       <c r="K10">
-        <v>0.4636639504627453</v>
+        <v>1.380553927379907</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2586943497033189</v>
+        <v>0.4860047743710112</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.770237344602975</v>
+        <v>1.925097394657115</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4588402955394884</v>
+        <v>1.347124488642862</v>
       </c>
       <c r="C11">
-        <v>0.06798182917654572</v>
+        <v>0.2178986015013322</v>
       </c>
       <c r="D11">
-        <v>0.195913922146417</v>
+        <v>0.2269319211429632</v>
       </c>
       <c r="E11">
-        <v>0.1685931182615228</v>
+        <v>0.1427757960519571</v>
       </c>
       <c r="F11">
-        <v>1.543004106692649</v>
+        <v>0.8932983893418651</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.7768431767387796</v>
+        <v>0.3447027328610375</v>
       </c>
       <c r="J11">
-        <v>0.1912421149287198</v>
+        <v>0.1275966497462235</v>
       </c>
       <c r="K11">
-        <v>0.4932953036930599</v>
+        <v>1.479526250579482</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.268206884489139</v>
+        <v>0.52113465723437</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.758995532142649</v>
+        <v>1.951479961424297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4690837789737827</v>
+        <v>1.381411868608865</v>
       </c>
       <c r="C12">
-        <v>0.06960776019644754</v>
+        <v>0.2233584757286877</v>
       </c>
       <c r="D12">
-        <v>0.197191117102733</v>
+        <v>0.2322215152785816</v>
       </c>
       <c r="E12">
-        <v>0.169111205752813</v>
+        <v>0.1455517076842696</v>
       </c>
       <c r="F12">
-        <v>1.542627120182729</v>
+        <v>0.9020085709408505</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.7753178332257242</v>
+        <v>0.3441080670544565</v>
       </c>
       <c r="J12">
-        <v>0.1914237823453888</v>
+        <v>0.1294496064100699</v>
       </c>
       <c r="K12">
-        <v>0.5045138142900498</v>
+        <v>1.517080753183137</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2718196598880382</v>
+        <v>0.5344869152934422</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.755027872163481</v>
+        <v>1.962251463392448</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.46687769583761</v>
+        <v>1.374024238210382</v>
       </c>
       <c r="C13">
-        <v>0.06925763612919411</v>
+        <v>0.2221820087883231</v>
       </c>
       <c r="D13">
-        <v>0.1969156208704135</v>
+        <v>0.2310811178167143</v>
       </c>
       <c r="E13">
-        <v>0.1689991649281239</v>
+        <v>0.1449526297121047</v>
       </c>
       <c r="F13">
-        <v>1.542703217291773</v>
+        <v>0.9001188754532592</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.775643747138151</v>
+        <v>0.3442292628865822</v>
       </c>
       <c r="J13">
-        <v>0.1913840722627214</v>
+        <v>0.1290489497437335</v>
       </c>
       <c r="K13">
-        <v>0.5020978162128245</v>
+        <v>1.508989108209704</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2710411164637208</v>
+        <v>0.5316089687721757</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.755869509207798</v>
+        <v>1.959896045319482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.459683047740981</v>
+        <v>1.349943896052707</v>
       </c>
       <c r="C14">
-        <v>0.06811561759697327</v>
+        <v>0.2183475285523855</v>
       </c>
       <c r="D14">
-        <v>0.1960188040827404</v>
+        <v>0.2273665673864826</v>
       </c>
       <c r="E14">
-        <v>0.1686355336443377</v>
+        <v>0.1430036184242809</v>
       </c>
       <c r="F14">
-        <v>1.542970796324468</v>
+        <v>0.894008792780852</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.7767165159714224</v>
+        <v>0.3446507244276518</v>
       </c>
       <c r="J14">
-        <v>0.1912567972841899</v>
+        <v>0.1277483813251052</v>
       </c>
       <c r="K14">
-        <v>0.4942183055426028</v>
+        <v>1.482614276930178</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2685038986968138</v>
+        <v>0.5222321292813064</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.758663311063373</v>
+        <v>1.952350183240611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4552760269953069</v>
+        <v>1.33520322165279</v>
       </c>
       <c r="C15">
-        <v>0.06741595522932187</v>
+        <v>0.2160004696673639</v>
       </c>
       <c r="D15">
-        <v>0.1954707370651789</v>
+        <v>0.2250947341582048</v>
       </c>
       <c r="E15">
-        <v>0.1684141508148755</v>
+        <v>0.1418133725631598</v>
       </c>
       <c r="F15">
-        <v>1.543149612842484</v>
+        <v>0.8903062420968126</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.7773812193544316</v>
+        <v>0.344928857053926</v>
       </c>
       <c r="J15">
-        <v>0.1911805502740123</v>
+        <v>0.126956353834494</v>
       </c>
       <c r="K15">
-        <v>0.489391568734618</v>
+        <v>1.466469247708289</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2669511521220471</v>
+        <v>0.516495162909834</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.760412279374464</v>
+        <v>1.947831402740064</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4300201907133783</v>
+        <v>1.250862089866416</v>
       </c>
       <c r="C16">
-        <v>0.06340433458467487</v>
+        <v>0.2025741847617155</v>
       </c>
       <c r="D16">
-        <v>0.1923493600172037</v>
+        <v>0.2121265177401312</v>
       </c>
       <c r="E16">
-        <v>0.1671662482140661</v>
+        <v>0.1350457573353268</v>
       </c>
       <c r="F16">
-        <v>1.544403042410153</v>
+        <v>0.8696866258445652</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.7813068653346811</v>
+        <v>0.3468220257679171</v>
       </c>
       <c r="J16">
-        <v>0.1907698742954338</v>
+        <v>0.1224862327462972</v>
       </c>
       <c r="K16">
-        <v>0.4617271902075402</v>
+        <v>1.374095665087538</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2580741752195834</v>
+        <v>0.4837155057186209</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.771012517713302</v>
+        <v>1.923479672875629</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4145261268048444</v>
+        <v>1.199228726823861</v>
       </c>
       <c r="C17">
-        <v>0.06094148581743752</v>
+        <v>0.1943568392381394</v>
       </c>
       <c r="D17">
-        <v>0.1904518640100434</v>
+        <v>0.2042141704974512</v>
       </c>
       <c r="E17">
-        <v>0.1664192544225678</v>
+        <v>0.1309397493949831</v>
       </c>
       <c r="F17">
-        <v>1.545376137046382</v>
+        <v>0.8575543174489795</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.7838190651000474</v>
+        <v>0.3482432130334168</v>
       </c>
       <c r="J17">
-        <v>0.1905413912378293</v>
+        <v>0.1198031492685203</v>
       </c>
       <c r="K17">
-        <v>0.4447526253516116</v>
+        <v>1.317546960704362</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.252647503252156</v>
+        <v>0.4636872674486057</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.778030846356188</v>
+        <v>1.909876246219653</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4056143728958546</v>
+        <v>1.169565984367438</v>
       </c>
       <c r="C18">
-        <v>0.05952426400503441</v>
+        <v>0.1896367585527088</v>
       </c>
       <c r="D18">
-        <v>0.1893668889534297</v>
+        <v>0.1996782954295497</v>
       </c>
       <c r="E18">
-        <v>0.1659964360963606</v>
+        <v>0.1285941945021811</v>
       </c>
       <c r="F18">
-        <v>1.546010893294422</v>
+        <v>0.85075975884385</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.7853022100650655</v>
+        <v>0.3491532973697566</v>
       </c>
       <c r="J18">
-        <v>0.1904185994956151</v>
+        <v>0.1182808579274734</v>
       </c>
       <c r="K18">
-        <v>0.4349882559562559</v>
+        <v>1.285061035824612</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2495332956210277</v>
+        <v>0.4521953372297602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.782257026545437</v>
+        <v>1.902526581341107</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4025970268515664</v>
+        <v>1.159528401408721</v>
       </c>
       <c r="C19">
-        <v>0.05904430653828285</v>
+        <v>0.1880396361863887</v>
       </c>
       <c r="D19">
-        <v>0.1890006397540276</v>
+        <v>0.1981450459666121</v>
       </c>
       <c r="E19">
-        <v>0.1658544519523382</v>
+        <v>0.1278027338801557</v>
       </c>
       <c r="F19">
-        <v>1.546238705085372</v>
+        <v>0.8484901805735774</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.7858109369011608</v>
+        <v>0.3494770890878911</v>
       </c>
       <c r="J19">
-        <v>0.1903785064171757</v>
+        <v>0.1177689594376119</v>
       </c>
       <c r="K19">
-        <v>0.4316820459829955</v>
+        <v>1.274068208526444</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2484800988654925</v>
+        <v>0.4483089547182431</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.783720472713611</v>
+        <v>1.900118140925827</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4161754981266199</v>
+        <v>1.204721434260506</v>
       </c>
       <c r="C20">
-        <v>0.06120372872881319</v>
+        <v>0.1952309190556036</v>
       </c>
       <c r="D20">
-        <v>0.1906531925461508</v>
+        <v>0.2050548733011368</v>
       </c>
       <c r="E20">
-        <v>0.1664980663437028</v>
+        <v>0.1313751582388427</v>
       </c>
       <c r="F20">
-        <v>1.545264781946656</v>
+        <v>0.8588266755949121</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.7835476840941702</v>
+        <v>0.3480822733953062</v>
       </c>
       <c r="J20">
-        <v>0.1905648210746165</v>
+        <v>0.1200865822894528</v>
       </c>
       <c r="K20">
-        <v>0.4465597095289979</v>
+        <v>1.323562489756966</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2532244514133026</v>
+        <v>0.4658163881358774</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.777264128829728</v>
+        <v>1.911274870462819</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4617963102508043</v>
+        <v>1.357014928885093</v>
       </c>
       <c r="C21">
-        <v>0.06845108606262329</v>
+        <v>0.2194734556090623</v>
       </c>
       <c r="D21">
-        <v>0.1962819586812543</v>
+        <v>0.2284569001175782</v>
       </c>
       <c r="E21">
-        <v>0.1687420593255169</v>
+        <v>0.1435753402028794</v>
       </c>
       <c r="F21">
-        <v>1.54288909343785</v>
+        <v>0.8957950874203533</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.7763998335899238</v>
+        <v>0.3445227514576956</v>
       </c>
       <c r="J21">
-        <v>0.1912938241652924</v>
+        <v>0.1281294246769633</v>
       </c>
       <c r="K21">
-        <v>0.4965327742662282</v>
+        <v>1.4903590273276</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2692488553708756</v>
+        <v>0.5249849432005647</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.757834850457897</v>
+        <v>1.954544967097377</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.491608553267497</v>
+        <v>1.456949768170659</v>
       </c>
       <c r="C22">
-        <v>0.07318131348823442</v>
+        <v>0.235390083669472</v>
       </c>
       <c r="D22">
-        <v>0.2000171255105556</v>
+        <v>0.2439031160048302</v>
       </c>
       <c r="E22">
-        <v>0.1702691814415758</v>
+        <v>0.1517072231699608</v>
       </c>
       <c r="F22">
-        <v>1.542004161047586</v>
+        <v>0.9217311466181002</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.7720685126266247</v>
+        <v>0.3430827604962872</v>
       </c>
       <c r="J22">
-        <v>0.1918469391676112</v>
+        <v>0.133589943429179</v>
       </c>
       <c r="K22">
-        <v>0.5291797355978645</v>
+        <v>1.599819599014836</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2797833345281191</v>
+        <v>0.5639458081185111</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.746823356915428</v>
+        <v>1.987402884227322</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4756977101970676</v>
+        <v>1.403571460553252</v>
       </c>
       <c r="C23">
-        <v>0.07065730607041587</v>
+        <v>0.2268875903014873</v>
       </c>
       <c r="D23">
-        <v>0.1980184649353305</v>
+        <v>0.2356444386120984</v>
       </c>
       <c r="E23">
-        <v>0.1694486025636088</v>
+        <v>0.1473518446492825</v>
       </c>
       <c r="F23">
-        <v>1.542415402224506</v>
+        <v>0.9077191119621091</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.7743490859010294</v>
+        <v>0.343767120470865</v>
       </c>
       <c r="J23">
-        <v>0.1915447228810905</v>
+        <v>0.1306560071601837</v>
       </c>
       <c r="K23">
-        <v>0.5117568498988305</v>
+        <v>1.541352324258128</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2741553135865544</v>
+        <v>0.5431228621871043</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.752546074829866</v>
+        <v>1.969429340093939</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4154298298018944</v>
+        <v>1.202238113749786</v>
       </c>
       <c r="C24">
-        <v>0.06108517274491021</v>
+        <v>0.1948357347257001</v>
       </c>
       <c r="D24">
-        <v>0.1905621534657627</v>
+        <v>0.2046747511366789</v>
       </c>
       <c r="E24">
-        <v>0.166462414793525</v>
+        <v>0.1311782632037364</v>
       </c>
       <c r="F24">
-        <v>1.545314890990085</v>
+        <v>0.8582508818774741</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.7836702544386007</v>
+        <v>0.348154745117899</v>
       </c>
       <c r="J24">
-        <v>0.1905542017610458</v>
+        <v>0.1199583793389465</v>
       </c>
       <c r="K24">
-        <v>0.4457427437551473</v>
+        <v>1.320842793268781</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2529635955100815</v>
+        <v>0.4648537428394732</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.777610166088181</v>
+        <v>1.910641088795302</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3504240201936284</v>
+        <v>0.9863769529242745</v>
       </c>
       <c r="C25">
-        <v>0.05073524186981615</v>
+        <v>0.1604959994583766</v>
       </c>
       <c r="D25">
-        <v>0.1827649196522998</v>
+        <v>0.1718373272827733</v>
       </c>
       <c r="E25">
-        <v>0.163502718786372</v>
+        <v>0.1143408376761599</v>
       </c>
       <c r="F25">
-        <v>1.551312420968515</v>
+        <v>0.8118407387925046</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.795184832115865</v>
+        <v>0.356398850113127</v>
       </c>
       <c r="J25">
-        <v>0.1898156137724598</v>
+        <v>0.1092112154843079</v>
       </c>
       <c r="K25">
-        <v>0.3744978676089943</v>
+        <v>1.084443892329148</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2303759349418186</v>
+        <v>0.3814679796077485</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.811887905216565</v>
+        <v>1.86519812915185</v>
       </c>
     </row>
   </sheetData>
